--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/ShifTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/ShifTemplate.xlsx
@@ -23,12 +23,6 @@
     <t>Ca Lam Viec</t>
   </si>
   <si>
-    <t>Ngay Bat Dau</t>
-  </si>
-  <si>
-    <t>Ngay Ket Thuc</t>
-  </si>
-  <si>
     <t>CD_WHC</t>
   </si>
   <si>
@@ -42,6 +36,12 @@
   </si>
   <si>
     <t>H2105001</t>
+  </si>
+  <si>
+    <t>Tên NV</t>
+  </si>
+  <si>
+    <t>XXXX</t>
   </si>
 </sst>
 </file>
@@ -104,12 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,44 +416,38 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44197</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44211</v>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +459,7 @@
           <x14:formula1>
             <xm:f>'DM CaLviec'!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1 B2</xm:sqref>
+          <xm:sqref>C1 C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -494,18 +487,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/ShifTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/ShifTemplate.xlsx
@@ -14,8 +14,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thời gian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Định dạng yyyy-MM-dd</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>MaNV</t>
   </si>
@@ -42,19 +76,93 @@
   </si>
   <si>
     <t>XXXX</t>
+  </si>
+  <si>
+    <r>
+      <t>Thời gian bắt đầu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(YYYY-MM-DD)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thời gian kết thúc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (YYYY-MM-DD)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cngay-ConNho</t>
+  </si>
+  <si>
+    <t>CN_CN</t>
+  </si>
+  <si>
+    <t>CD_CN</t>
+  </si>
+  <si>
+    <t>Cdem-ConNho</t>
+  </si>
+  <si>
+    <t>VP_CN</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>ThaiSan</t>
+  </si>
+  <si>
+    <t>VP-ConNho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -66,13 +174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,11 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,54 +521,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44562</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44581</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'DM CaLviec'!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C1 C2</xm:sqref>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'DM CaLviec'!$B$1:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -472,10 +602,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,19 +616,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/ShifTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/ShifTemplate.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CaLamViec" sheetId="1" r:id="rId1"/>
     <sheet name="DM CaLviec" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>MaNV</t>
   </si>
@@ -106,30 +106,6 @@
       </rPr>
       <t xml:space="preserve"> (YYYY-MM-DD)</t>
     </r>
-  </si>
-  <si>
-    <t>Cngay-ConNho</t>
-  </si>
-  <si>
-    <t>CN_CN</t>
-  </si>
-  <si>
-    <t>CD_CN</t>
-  </si>
-  <si>
-    <t>Cdem-ConNho</t>
-  </si>
-  <si>
-    <t>VP_CN</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>ThaiSan</t>
-  </si>
-  <si>
-    <t>VP-ConNho</t>
   </si>
 </sst>
 </file>
@@ -528,7 +504,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
         <v>44562</v>
@@ -587,7 +563,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'DM CaLviec'!$B$1:$B$6</xm:f>
+            <xm:f>'DM CaLviec'!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
@@ -602,10 +578,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,38 +607,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/ShifTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/ShifTemplate.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CaLamViec" sheetId="1" r:id="rId1"/>
     <sheet name="DM CaLviec" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" calcOnSave="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>MaNV</t>
   </si>
@@ -106,6 +106,12 @@
       </rPr>
       <t xml:space="preserve"> (YYYY-MM-DD)</t>
     </r>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>Hành Chính</t>
   </si>
 </sst>
 </file>
@@ -503,8 +509,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3">
         <v>44562</v>
@@ -563,7 +569,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'DM CaLviec'!$B$1:$B$2</xm:f>
+            <xm:f>'DM CaLviec'!$B$1:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
@@ -578,10 +584,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,6 +613,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
